--- a/POLISH2/bin/Debug/system_value.xlsx
+++ b/POLISH2/bin/Debug/system_value.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\课程\抛光\第七台_光明\POLISH2-Z\POLISH2\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\课程\抛光\软件改动版本\2021-913\POLISH2-Z\POLISH2\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>C轴电压转速比例因子</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -144,6 +144,10 @@
   </si>
   <si>
     <t>Z轴回零偏移改变量(mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -472,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -856,6 +860,14 @@
         <v>96.06</v>
       </c>
     </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>220202</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
